--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/ClearFilters_03_09.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/ClearFilters_03_09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67CED88-BA63-42CD-9E2D-6FC6F38F8210}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BEDD98-3BDC-4C9D-8AF5-A97791AD9F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="252">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,22 +785,19 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
   </si>
 </sst>
 </file>
@@ -864,10 +861,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4838,8 +4835,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C10" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -4868,9 +4865,9 @@
         <item x="2"/>
         <item x="1"/>
         <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5202,10 +5199,10 @@
     </pivotField>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="5">
-        <item sd="0" x="0"/>
+        <item h="1" sd="0" x="0"/>
         <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5213,7 +5210,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -5222,15 +5219,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -5241,12 +5229,9 @@
     <field x="10"/>
     <field x="3"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -5290,7 +5275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5586,17 +5571,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D221A-1F93-4E8D-B1BD-A9CD4616FBDE}">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -5661,31 +5647,28 @@
     <col min="230" max="230" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
         <v>250</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>208</v>
       </c>
@@ -5693,13 +5676,10 @@
         <v>618529.55000000005</v>
       </c>
       <c r="C7" s="2">
-        <v>600563.20000000007</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1219092.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618529.55000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>213</v>
       </c>
@@ -5707,80 +5687,29 @@
         <v>1585624</v>
       </c>
       <c r="C8" s="2">
-        <v>2001299</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3586923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1585624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B9" s="2">
-        <v>4332.8300000000008</v>
+        <v>4332.83</v>
       </c>
       <c r="C9" s="2">
-        <v>4628.8700000000008</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8961.7000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4332.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="B10" s="2">
-        <v>5073.8899999999994</v>
+        <v>2208486.38</v>
       </c>
       <c r="C10" s="2">
-        <v>6035.08</v>
-      </c>
-      <c r="D10" s="2">
-        <v>11108.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="2">
-        <v>150850.52000000002</v>
-      </c>
-      <c r="C11" s="2">
-        <v>144255.52000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <v>295106.04000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="2">
-        <v>149195</v>
-      </c>
-      <c r="C12" s="2">
-        <v>157848</v>
-      </c>
-      <c r="D12" s="2">
-        <v>307043</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2513605.79</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2914629.6700000004</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5428235.46</v>
+        <v>2208486.38</v>
       </c>
     </row>
   </sheetData>
@@ -5796,7 +5725,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
